--- a/biology/Histoire de la zoologie et de la botanique/Pierre_Marcel_Durquety/Pierre_Marcel_Durquety.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre_Marcel_Durquety/Pierre_Marcel_Durquety.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Marcel Durquety, né le 23 avril 1923 à Capbreton et mort le 2 août 2016 à Bordeaux[1],[2], est un chercheur français de l'Institut national de la recherche agronomique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Marcel Durquety, né le 23 avril 1923 à Capbreton et mort le 2 août 2016 à Bordeaux est un chercheur français de l'Institut national de la recherche agronomique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Né en 1923, il a travaillé sur les cépages à l'INRA de Bordeaux[3]. Dans les années 1950, il participe à la création de métis intraspécifiques de Vitis vinifera. Ces nouveaux cépages sont destinés à remplacer les cépages productifs cultivés massivement après la crise du phylloxéra. Pour les travaux sur les cépages de P.M. Durquéty, voir :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Né en 1923, il a travaillé sur les cépages à l'INRA de Bordeaux. Dans les années 1950, il participe à la création de métis intraspécifiques de Vitis vinifera. Ces nouveaux cépages sont destinés à remplacer les cépages productifs cultivés massivement après la crise du phylloxéra. Pour les travaux sur les cépages de P.M. Durquéty, voir :
 Arinarnoa
 Arriloba
 Egiodola
@@ -548,7 +562,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1955, monographie du baroque ou plant bordelais.
 P. M. Durquety et P. Robert, Un vignoble au pays d’Euskadi, Progrès Agricole et Viticole, Montpellier, 1973.</t>
